--- a/data/123-madao_service/service-user_structure.xlsx
+++ b/data/123-madao_service/service-user_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="278">
   <si>
     <t>类名</t>
   </si>
@@ -835,9 +835,6 @@
     <t>权重</t>
   </si>
   <si>
-    <t>onEvent(com.corundumstudio.socketio.SocketIOClient)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -845,9 +842,6 @@
   </si>
   <si>
     <t>源操作签名</t>
-  </si>
-  <si>
-    <t>updateByPrimaryKey(org.springframework.security.core.Authentication)</t>
   </si>
   <si>
     <t>目标接口</t>
@@ -9217,7 +9211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9245,7 +9239,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
@@ -9254,7 +9248,7 @@
         <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -9271,7 +9265,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
@@ -9288,7 +9282,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
@@ -9299,13 +9293,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
@@ -9316,64 +9310,64 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -9381,16 +9375,16 @@
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
@@ -9404,10 +9398,10 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
@@ -9421,27 +9415,27 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
@@ -9449,33 +9443,33 @@
         <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
@@ -9483,16 +9477,16 @@
         <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
         <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
@@ -9500,7 +9494,7 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
         <v>122</v>
@@ -9509,7 +9503,7 @@
         <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
@@ -9517,7 +9511,7 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
         <v>122</v>
@@ -9526,7 +9520,7 @@
         <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19">
@@ -9534,33 +9528,33 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
         <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
@@ -9568,16 +9562,16 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
@@ -9585,7 +9579,7 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
         <v>126</v>
@@ -9594,7 +9588,7 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
@@ -9602,7 +9596,7 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
         <v>126</v>
@@ -9611,7 +9605,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
@@ -9619,33 +9613,33 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
         <v>126</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
@@ -9653,16 +9647,16 @@
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>131</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -9670,7 +9664,7 @@
         <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
         <v>131</v>
@@ -9679,7 +9673,7 @@
         <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
@@ -9687,7 +9681,7 @@
         <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
         <v>131</v>
@@ -9696,7 +9690,7 @@
         <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -9704,50 +9698,50 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
@@ -9755,16 +9749,16 @@
         <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -9772,16 +9766,16 @@
         <v>153</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
@@ -9789,16 +9783,16 @@
         <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
@@ -9806,16 +9800,16 @@
         <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
@@ -9823,16 +9817,16 @@
         <v>153</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
@@ -9840,16 +9834,16 @@
         <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
@@ -9857,16 +9851,16 @@
         <v>153</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
@@ -9874,7 +9868,7 @@
         <v>153</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
         <v>109</v>
@@ -9883,7 +9877,7 @@
         <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
@@ -9891,16 +9885,16 @@
         <v>153</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
@@ -9908,16 +9902,16 @@
         <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42">
@@ -9928,13 +9922,13 @@
         <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
@@ -9942,16 +9936,16 @@
         <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
@@ -9959,16 +9953,16 @@
         <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45">
@@ -9979,13 +9973,13 @@
         <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
@@ -9993,16 +9987,16 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
@@ -10010,50 +10004,50 @@
         <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50">
@@ -10061,16 +10055,16 @@
         <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
@@ -10078,16 +10072,16 @@
         <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52">
@@ -10095,16 +10089,16 @@
         <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53">
@@ -10115,13 +10109,13 @@
         <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54">
@@ -10129,16 +10123,16 @@
         <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55">
@@ -10146,16 +10140,16 @@
         <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56">
@@ -10166,47 +10160,47 @@
         <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59">
@@ -10214,16 +10208,16 @@
         <v>186</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60">
@@ -10231,16 +10225,16 @@
         <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61">
@@ -10248,16 +10242,16 @@
         <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62">
@@ -10265,16 +10259,16 @@
         <v>186</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63">
@@ -10282,16 +10276,16 @@
         <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64">
@@ -10299,7 +10293,7 @@
         <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>120</v>
@@ -10308,7 +10302,7 @@
         <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65">
@@ -10316,16 +10310,16 @@
         <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66">
@@ -10333,16 +10327,16 @@
         <v>186</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67">
@@ -10350,16 +10344,16 @@
         <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
@@ -10367,16 +10361,16 @@
         <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69">
@@ -10384,7 +10378,7 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>94</v>
@@ -10393,7 +10387,7 @@
         <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70">
@@ -10401,50 +10395,50 @@
         <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C72" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73">
@@ -10452,16 +10446,16 @@
         <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74">
@@ -10469,16 +10463,16 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -10486,16 +10480,16 @@
         <v>191</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
         <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76">
@@ -10503,16 +10497,50 @@
         <v>191</v>
       </c>
       <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" t="s">
         <v>196</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>121</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D78" t="s">
         <v>116</v>
       </c>
-      <c r="E76" t="s">
-        <v>272</v>
+      <c r="E78" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -10522,7 +10550,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10530,10 +10558,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" t="s">
-        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>268</v>
@@ -10559,7 +10587,7 @@
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -10576,7 +10604,7 @@
         <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
@@ -10593,7 +10621,7 @@
         <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
@@ -10610,7 +10638,7 @@
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
@@ -10627,7 +10655,7 @@
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -10644,7 +10672,7 @@
         <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
@@ -10661,7 +10689,7 @@
         <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9">
@@ -10678,7 +10706,7 @@
         <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -10695,7 +10723,7 @@
         <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
@@ -10712,7 +10740,7 @@
         <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12">
@@ -10729,7 +10757,7 @@
         <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
@@ -10746,7 +10774,7 @@
         <v>180</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
@@ -10763,7 +10791,7 @@
         <v>188</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15">
@@ -10780,7 +10808,7 @@
         <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16">
@@ -10797,7 +10825,7 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
@@ -10814,7 +10842,7 @@
         <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
@@ -10822,7 +10850,7 @@
         <v>249</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C18" t="s">
         <v>186</v>
@@ -10831,7 +10859,7 @@
         <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19">
@@ -10848,7 +10876,7 @@
         <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
@@ -10865,7 +10893,7 @@
         <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21">
@@ -10882,7 +10910,7 @@
         <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
@@ -10899,7 +10927,7 @@
         <v>155</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
@@ -10916,7 +10944,7 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24">
@@ -10933,7 +10961,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25">
@@ -10950,7 +10978,7 @@
         <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
@@ -10967,7 +10995,7 @@
         <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -10984,7 +11012,7 @@
         <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
@@ -11001,7 +11029,7 @@
         <v>168</v>
       </c>
       <c r="E28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -11018,7 +11046,7 @@
         <v>154</v>
       </c>
       <c r="E29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
@@ -11035,7 +11063,7 @@
         <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -11043,16 +11071,16 @@
         <v>258</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
         <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
@@ -11060,16 +11088,16 @@
         <v>258</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
         <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
@@ -11077,16 +11105,16 @@
         <v>258</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
         <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
@@ -11094,16 +11122,33 @@
         <v>258</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
         <v>153</v>
       </c>
       <c r="D34" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" t="s">
+        <v>264</v>
+      </c>
+      <c r="C35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
         <v>161</v>
       </c>
-      <c r="E34" t="s">
-        <v>272</v>
+      <c r="E35" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -11127,10 +11172,10 @@
         <v>267</v>
       </c>
       <c r="C1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
         <v>270</v>
@@ -11151,16 +11196,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
         <v>273</v>
       </c>
-      <c r="B1" t="s">
-        <v>274</v>
-      </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
         <v>270</v>
@@ -11190,7 +11235,7 @@
         <v>268</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
         <v>270</v>
@@ -11211,16 +11256,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" t="s">
-        <v>274</v>
       </c>
       <c r="C1" t="s">
         <v>268</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
         <v>270</v>
